--- a/Mazahua Study data for StatsAnalysis.xlsx
+++ b/Mazahua Study data for StatsAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mnscu-my.sharepoint.com/personal/lb7659fu_go_minnstate_edu/Documents/stat 370/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mnscu-my.sharepoint.com/personal/lb7659fu_go_minnstate_edu/Documents/stat 370/Consulting_Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{CB2F684C-2601-4ED4-B62C-04FDD2CCE36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B3F2FF-F51B-46C7-B377-6C1FE82041C1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{CB2F684C-2601-4ED4-B62C-04FDD2CCE36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{988B1C2D-07B3-471E-97EC-88CDBC624923}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CD85C1-6373-2144-A030-4F39E4E8D5A8}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
